--- a/Output_testing/R1_201907/Country/HKD/MN/KUWAIT_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/KUWAIT_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>672.245921</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>55.60222686975386</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>590.724245</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>48.39239671027752</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>607.84902</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>52.636817456623</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>532.339565</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>62.11953873760109</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>79.26969868525535</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>89.05458400000001</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.365806215668435</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>83.550279</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.844476557115694</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>95.620699</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.280295127131557</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>76.496922</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.926545802557902</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>45.71901177199828</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>94.293378</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.799112842622153</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>106.294121</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.707662356743526</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>82.789356</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.169162202685424</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>32.52658</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.7955776334447</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-26.65880204613017</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>47.988772</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.969206066696076</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>38.874565</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.184621906655396</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>48.048226</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.160746530571962</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>28.340873</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.307140918937582</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>1.36996174349675</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>11.418275</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.9444185485972457</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>18.504109</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.515864959120167</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>27.139154</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.350120914935718</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>19.889151</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.320896223451844</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>21.99545610398948</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>27.525449</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.276661281504212</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>27.232385</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.230889267609137</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>33.043634</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.861420638568211</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>18.076904</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.109422278774068</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-7.350215942233628</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>34.564389</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.858860037311293</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>30.013761</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.458740844604161</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>32.225759</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.790596575913087</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>14.476575</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.68929424116783</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-18.32183080020326</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>33.636251</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.782092684724501</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>33.499018</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.744254670740198</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>33.066029</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.863359938440639</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>13.17483</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.537391575518737</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-37.04979571140884</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>15.710038</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.299395161385374</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>18.655645</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.528278856619649</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>18.563966</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.607550653964953</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>9.9513</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.161232804177329</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>10.53885260775409</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.363216</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1954642907743761</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>5.839581</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.4783811105870541</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.130919</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3577178249478721</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>9.156796</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.068520886352512</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>264.8102641576787</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>180.226701</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>14.90675600096247</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>267.508692</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>21.9144327599275</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>172.321437</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>14.92221213621758</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>102.530449</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.96443889801641</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>18.40661927635614</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,533 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.949688</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>21.64724117275764</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>2.496218</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>31.9773564747531</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>2.635586</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>19.54870699406252</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>6.258334</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>54.13897541271845</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>609.580181796124</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>5.06228</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>56.20611915548925</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>3.392187</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>43.45500790717129</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>9.265172</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>68.72176915402959</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>4.632816</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>40.07710542704315</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-4.854092175873914</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.172061</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>13.01330630141002</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.250241</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>16.01598984397668</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.726392</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>5.387805357454115</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.874480839000335</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.539352348548366</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.77872223643855</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.06144099741889</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-48.83449397439639</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>4.068978036747353</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.228919173913572</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.079137971317631</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.8749318865439818</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-75.63678234016005</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.3627462978827561</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.8488413727035957</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>100.6379585326954</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.3378287229359245</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.6095023125833872</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.1402891971977763</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.1242240645715996</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>95.77368779822768</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.8603375574370556</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.3846555400479491</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.1204852341800084</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>3.582150353468811</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>4.726526610659808</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.2070660455368518</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1826,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>672.245921</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>56.01954393207998</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>590.724245</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>48.70385191900751</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>607.84902</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>53.25860619699391</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>532.339565</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>62.96894329529058</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>79.26969868525535</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>89.05458400000001</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.421089552049668</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>83.550279</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.888527854833118</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>95.620699</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.37810868284741</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>76.496922</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.048604801114617</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>45.71901177199828</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>94.293378</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.857648319409026</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>106.014491</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.740650336660813</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>82.789356</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>7.253850155926441</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>32.52658</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.847477261265998</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-26.65880204613017</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>46.039084</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.836525307426477</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>36.378347</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.999310829617754</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>45.41264</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.978971472432173</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>22.082539</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.612081155581669</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-18.4420386791434</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>11.418275</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.9515067894195083</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>18.504109</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.525621120611317</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>27.139154</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.377882447528783</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>19.889151</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.352631485338633</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>21.99545610398948</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>27.525449</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.293748539540378</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>27.232385</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.245247351310935</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>33.043634</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.895222057812314</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>18.076904</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.138265907269942</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-7.350215942233628</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>34.564389</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.880316931028283</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>30.013761</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.474565389264636</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>32.225759</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.823561363939078</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>14.476575</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.712393160716922</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-18.32183080020326</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>33.636251</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.802973408603202</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>33.495898</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.761659555866341</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>33.066029</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.897184266266285</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>13.17483</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.558413422070353</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-37.04979571140884</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>15.710038</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.309147644371718</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>18.655645</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.538114914402359</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>18.563966</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.626540344917203</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>9.9513</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.177111164777739</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>10.53885260775409</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2.363216</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.1969313288447522</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>5.839581</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.4814599886501185</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4.130919</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3619434777614347</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>9.156796</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.083131531075553</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>264.8102641576787</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>173.169754</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>14.43056824722701</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>262.481455</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>21.64099073977509</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>161.474873</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>14.14812953357497</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>97.229026</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>11.50094681549799</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>20.19093280557411</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2284,475 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF ETHYLENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>202.732892</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>71.24615829118635</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>196.043503</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>25.4560950113356</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>224.556728</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>46.41934131131841</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>161.531844</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>67.50870270567428</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>29.89636185134805</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>34.256036</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>14.31656132272517</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>25.629215</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>9.006841912800452</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>22.186182</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.880858321179782</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>59.664848</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>12.33364490241385</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>25.830523</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>10.79530236737149</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-44.96018526414336</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>23.717221</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>8.334912331803803</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>27.608212</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.584904661518395</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>18.292334</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.781307747442038</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>6.866712</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.869792156730942</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-53.93954793395752</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.07911433358741043</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1.468221</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.1906473446030913</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.157098</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.319440086963156</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>115.368732</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>14.98053930983529</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.792216</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.166945632305337</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>2.97077</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.04401386266767</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>4.113872</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.5341830506694895</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>3.730702</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.7711936801502479</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.120916</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.4684623361449003</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>199.377962955544</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>9.157672</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.218268838638996</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>62.626655</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>8.132022002902771</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>118.186292</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>24.43093055162052</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>0.796382</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.3328304459778859</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-97.92955023661871</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2.239423</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.46292329561115</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>0.777463</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.3249236635450137</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-7.337105180668468</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>3.775974</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.326985664010574</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>1.914412</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.2485848957863245</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>0.631147</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.1304678255314385</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.1387688587668948</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-28.13453671839491</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>16.343869</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5.743704765304751</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>338.794234</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>43.99216540216926</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>56.455343</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>11.67019068591234</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1.814356</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.758270423794929</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-96.50891535426807</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
